--- a/ig/ch-emed/StructureDefinition-ch-emed-medicationadministration.xlsx
+++ b/ig/ch-emed/StructureDefinition-ch-emed-medicationadministration.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T19:08:44+00:00</t>
+    <t>2024-12-17T21:35:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-emed/StructureDefinition-ch-emed-medicationadministration.xlsx
+++ b/ig/ch-emed/StructureDefinition-ch-emed-medicationadministration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3318" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3318" uniqueCount="536">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:35:32+00:00</t>
+    <t>2025-05-22T07:37:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1627,20 +1627,16 @@
     <t>Amount of medication administered</t>
   </si>
   <si>
-    <t>The comparator is not used on a SimpleQuantity</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
+    <t>The amount of the medication given at one administration event.   Use this value when the administration is essentially an instantaneous event such as a swallowing a tablet or giving an injection.</t>
+  </si>
+  <si>
+    <t>If the administration is not instantaneous (rate is present), this can be specified to convey the total amount administered over period of time of a single administration.</t>
+  </si>
+  <si>
+    <t>.doseQuantity</t>
+  </si>
+  <si>
+    <t>RXA-6 Administered Amount / RXA-7 Administered Units</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.rate[x]</t>
@@ -2020,17 +2016,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.66015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="58.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.47265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.2890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="50.2890625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.40625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="106.70703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.48046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2039,27 +2035,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.77734375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="45.6171875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="39.109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="101.08984375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="22.50390625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="245.42578125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="86.66796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="19.29296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12190,22 +12186,22 @@
         <v>89</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="AJ87" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL87" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="AK87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL87" t="s" s="2">
+      <c r="AM87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>80</v>
@@ -12213,10 +12209,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12239,16 +12235,16 @@
         <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12298,7 +12294,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
@@ -12316,13 +12312,13 @@
         <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>80</v>
@@ -12330,10 +12326,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12356,16 +12352,16 @@
         <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12415,7 +12411,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>81</v>
@@ -12433,7 +12429,7 @@
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>80</v>

--- a/ig/ch-emed/StructureDefinition-ch-emed-medicationadministration.xlsx
+++ b/ig/ch-emed/StructureDefinition-ch-emed-medicationadministration.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$81</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3318" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3021" uniqueCount="484">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0-ballot</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T07:37:19+00:00</t>
+    <t>2025-12-16T11:14:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -370,7 +370,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -524,463 +524,306 @@
     <t>MedicationAdministration.identifier</t>
   </si>
   <si>
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-uuid-identifier}
+</t>
+  </si>
+  <si>
+    <t>MedicationAdministration Identifier</t>
+  </si>
+  <si>
+    <t>Identifiers associated with this Medication Administration that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.instantiates</t>
+  </si>
+  <si>
+    <t>Instantiates protocol or definition</t>
+  </si>
+  <si>
+    <t>A protocol, guideline, orderset, or other definition that was adhered to in whole or in part by this event.</t>
+  </si>
+  <si>
+    <t>Event.instantiates</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DEFN].target[classCode=unspecified]</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|Procedure|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Part of referenced event</t>
+  </si>
+  <si>
+    <t>A larger event of which this particular event is a component or step.</t>
+  </si>
+  <si>
+    <t>Event.partOf</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=COMP]/target[classCode=SBADM or PROC,moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.status</t>
+  </si>
+  <si>
+    <t>in-progress | not-done | on-hold | completed | entered-in-error | stopped | unknown</t>
+  </si>
+  <si>
+    <t>Will generally be set to show that the administration has been completed.  For some long running administrations such as infusions, it is possible for an administration to be started but not completed or it may be paused while some other process is under way.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A set of codes indicating the current status of a MedicationAdministration.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-admin-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>RXA-20-Completion Status</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.statusReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Reason administration not performed</t>
+  </si>
+  <si>
+    <t>A code indicating why the administration was not performed.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A set of codes indicating the reason why the MedicationAdministration is negated.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/reason-medication-not-given-codes|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.statusReason</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RSON]/target[classCode=OBS,moodCode=EVN, code="reason not given"].value</t>
+  </si>
+  <si>
+    <t>RXA-9-Administration Notes / RXA-18 Substance/Treatment Refusal Reason</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.category</t>
+  </si>
+  <si>
+    <t>Type of medication usage</t>
+  </si>
+  <si>
+    <t>Indicates where the medication is expected to be consumed or administered.</t>
+  </si>
+  <si>
+    <t>A coded concept describing where the medication administered is expected to occur.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-admin-category|4.0.1</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication usage"].value</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.medication[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-medication)</t>
+  </si>
+  <si>
+    <t>What was administered</t>
+  </si>
+  <si>
+    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
+  </si>
+  <si>
+    <t>Codes identifying substance or product that can be administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes|4.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=ADMM]</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>RXA-5-Administered Code</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.medication[x]:medicationReference</t>
+  </si>
+  <si>
+    <t>medicationReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-medication-medicationdispense) &lt;&lt;contained&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>Reference to the contained medication</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient)
+</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>The person or animal or group receiving the medication.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>PID-3-Patient ID List</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.subject.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.subject.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.subject.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.subject.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.subject.identifier</t>
+  </si>
+  <si>
     <t xml:space="preserve">Identifier
 </t>
-  </si>
-  <si>
-    <t>MedicationAdministration Identifier</t>
-  </si>
-  <si>
-    <t>Identifiers associated with this Medication Administration that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.identifier.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>urn:ietf:rfc:3986</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.identifier.value</t>
-  </si>
-  <si>
-    <t>Identifier value as UUID</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.instantiates</t>
-  </si>
-  <si>
-    <t>Instantiates protocol or definition</t>
-  </si>
-  <si>
-    <t>A protocol, guideline, orderset, or other definition that was adhered to in whole or in part by this event.</t>
-  </si>
-  <si>
-    <t>Event.instantiates</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DEFN].target[classCode=unspecified]</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|Procedure)
-</t>
-  </si>
-  <si>
-    <t>Part of referenced event</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular event is a component or step.</t>
-  </si>
-  <si>
-    <t>Event.partOf</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=COMP]/target[classCode=SBADM or PROC,moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.status</t>
-  </si>
-  <si>
-    <t>in-progress | not-done | on-hold | completed | entered-in-error | stopped | unknown</t>
-  </si>
-  <si>
-    <t>Will generally be set to show that the administration has been completed.  For some long running administrations such as infusions, it is possible for an administration to be started but not completed or it may be paused while some other process is under way.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>completed</t>
-  </si>
-  <si>
-    <t>A set of codes indicating the current status of a MedicationAdministration.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-admin-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>RXA-20-Completion Status</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.statusReason</t>
-  </si>
-  <si>
-    <t>Reason administration not performed</t>
-  </si>
-  <si>
-    <t>A code indicating why the administration was not performed.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A set of codes indicating the reason why the MedicationAdministration is negated.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/reason-medication-not-given-codes</t>
-  </si>
-  <si>
-    <t>Event.statusReason</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RSON]/target[classCode=OBS,moodCode=EVN, code="reason not given"].value</t>
-  </si>
-  <si>
-    <t>RXA-9-Administration Notes / RXA-18 Substance/Treatment Refusal Reason</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.category</t>
-  </si>
-  <si>
-    <t>Type of medication usage</t>
-  </si>
-  <si>
-    <t>Indicates where the medication is expected to be consumed or administered.</t>
-  </si>
-  <si>
-    <t>A coded concept describing where the medication administered is expected to occur.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-admin-category</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication usage"].value</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x]</t>
-  </si>
-  <si>
-    <t>CodeableConcept
-Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-medication)</t>
-  </si>
-  <si>
-    <t>What was administered</t>
-  </si>
-  <si>
-    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
-  </si>
-  <si>
-    <t>Codes identifying substance or product that can be administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=ADMM]</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>RXA-5-Administered Code</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x]:medicationReference</t>
-  </si>
-  <si>
-    <t>medicationReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-medication-medicationdispense) &lt;&lt;contained&gt;&gt;
-</t>
-  </si>
-  <si>
-    <t>Reference to the contained medication</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient)
-</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>The person or animal or group receiving the medication.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>PID-3-Patient ID List</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject.identifier</t>
   </si>
   <si>
     <t>Logical reference, when literal reference is not known</t>
@@ -1019,7 +862,7 @@
     <t>MedicationAdministration.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(Encounter|4.0.1|EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -1044,7 +887,7 @@
     <t>MedicationAdministration.supportingInformation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1142,7 +985,7 @@
     <t>A code describing the role an individual played in administering the medication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/med-admin-perform-function</t>
+    <t>http://hl7.org/fhir/ValueSet/med-admin-perform-function|4.0.1</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -1200,7 +1043,7 @@
     <t>A set of codes indicating the reason why the MedicationAdministration was made.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/reason-medication-given-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/reason-medication-given-codes|4.0.1</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1215,7 +1058,7 @@
     <t>MedicationAdministration.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|DiagnosticReport|4.0.1)
 </t>
   </si>
   <si>
@@ -1243,7 +1086,7 @@
     <t>MedicationAdministration.request</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest)
+    <t xml:space="preserve">Reference(MedicationRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1268,7 +1111,7 @@
     <t>MedicationAdministration.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device)
+    <t xml:space="preserve">Reference(Device|4.0.1)
 </t>
   </si>
   <si>
@@ -1357,7 +1200,7 @@
     <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/approach-site-codes|4.0.1</t>
   </si>
   <si>
     <t>.approachSiteCode</t>
@@ -1664,7 +1507,7 @@
     <t>MedicationAdministration.eventHistory</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Provenance)
+    <t xml:space="preserve">Reference(Provenance|4.0.1)
 </t>
   </si>
   <si>
@@ -2007,7 +1850,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO89"/>
+  <dimension ref="A1:AO81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2035,13 +1878,13 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.7421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -3714,7 +3557,7 @@
         <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>80</v>
@@ -3723,16 +3566,16 @@
         <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3783,25 +3626,25 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>80</v>
@@ -3815,14 +3658,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3838,10 +3681,10 @@
         <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>176</v>
@@ -3849,9 +3692,7 @@
       <c r="M16" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="N16" t="s" s="2">
-        <v>158</v>
-      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -3888,19 +3729,19 @@
         <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -3912,13 +3753,13 @@
         <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>80</v>
@@ -3943,7 +3784,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>89</v>
@@ -3969,15 +3810,13 @@
       <c r="N17" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="O17" t="s" s="2">
-        <v>184</v>
-      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>80</v>
@@ -4019,10 +3858,10 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>89</v>
@@ -4034,16 +3873,16 @@
         <v>101</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>189</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>80</v>
@@ -4051,10 +3890,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4065,7 +3904,7 @@
         <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>80</v>
@@ -4074,23 +3913,19 @@
         <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O18" t="s" s="2">
         <v>195</v>
       </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>80</v>
       </c>
@@ -4138,13 +3973,13 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>80</v>
@@ -4153,16 +3988,16 @@
         <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>80</v>
@@ -4170,10 +4005,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4181,7 +4016,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>89</v>
@@ -4193,54 +4028,50 @@
         <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N19" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="O19" t="s" s="2">
-        <v>205</v>
-      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="Z19" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="S19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AA19" t="s" s="2">
         <v>80</v>
       </c>
@@ -4257,7 +4088,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4275,13 +4106,13 @@
         <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>80</v>
@@ -4289,10 +4120,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4315,16 +4146,16 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4338,46 +4169,44 @@
         <v>80</v>
       </c>
       <c r="T20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="U20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>89</v>
@@ -4389,16 +4218,16 @@
         <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>217</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>80</v>
@@ -4406,12 +4235,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4432,15 +4263,17 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>80</v>
@@ -4489,10 +4322,10 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>89</v>
@@ -4504,16 +4337,16 @@
         <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>80</v>
@@ -4521,10 +4354,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4532,7 +4365,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>89</v>
@@ -4547,17 +4380,15 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>230</v>
-      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -4606,10 +4437,10 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>89</v>
@@ -4621,16 +4452,16 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -4638,10 +4469,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4652,7 +4483,7 @@
         <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
@@ -4661,16 +4492,16 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>103</v>
+        <v>233</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4721,25 +4552,25 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>80</v>
@@ -4753,14 +4584,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4776,18 +4607,20 @@
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -4824,19 +4657,19 @@
         <v>80</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4848,13 +4681,13 @@
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>80</v>
@@ -4868,10 +4701,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4888,22 +4721,22 @@
         <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>109</v>
+        <v>233</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4911,7 +4744,7 @@
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>80</v>
@@ -4929,13 +4762,13 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
@@ -4953,31 +4786,31 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>252</v>
+        <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>253</v>
+        <v>132</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>80</v>
@@ -4985,10 +4818,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4999,7 +4832,7 @@
         <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -5008,18 +4841,20 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>191</v>
+        <v>103</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -5044,13 +4879,13 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
@@ -5074,7 +4909,7 @@
         <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
@@ -5083,16 +4918,16 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>263</v>
+        <v>132</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>80</v>
@@ -5100,10 +4935,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5123,18 +4958,20 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>191</v>
+        <v>258</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -5159,13 +4996,13 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>268</v>
+        <v>80</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>269</v>
+        <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
@@ -5183,7 +5020,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5201,7 +5038,7 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
@@ -5215,10 +5052,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5226,7 +5063,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>89</v>
@@ -5241,16 +5078,16 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5276,32 +5113,34 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>276</v>
+        <v>80</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>277</v>
+        <v>80</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AC28" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>89</v>
@@ -5313,16 +5152,16 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>279</v>
+        <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>280</v>
+        <v>132</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -5330,14 +5169,12 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5355,20 +5192,18 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -5417,10 +5252,10 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>89</v>
@@ -5432,16 +5267,16 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>80</v>
@@ -5449,10 +5284,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5460,10 +5295,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
@@ -5472,16 +5307,16 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5532,13 +5367,13 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
@@ -5547,16 +5382,16 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>80</v>
@@ -5564,10 +5399,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5575,7 +5410,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>89</v>
@@ -5587,16 +5422,16 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>170</v>
+        <v>283</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>171</v>
+        <v>284</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>172</v>
+        <v>285</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5647,10 +5482,10 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>173</v>
+        <v>282</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>89</v>
@@ -5659,19 +5494,19 @@
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>80</v>
+        <v>286</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>174</v>
+        <v>287</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>80</v>
+        <v>288</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>80</v>
+        <v>289</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>80</v>
@@ -5679,21 +5514,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -5702,20 +5537,18 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>134</v>
+        <v>291</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>176</v>
+        <v>292</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -5752,19 +5585,19 @@
         <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>179</v>
+        <v>290</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5776,19 +5609,19 @@
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>80</v>
+        <v>294</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>174</v>
+        <v>295</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>80</v>
+        <v>296</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>80</v>
+        <v>297</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -5796,10 +5629,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5807,7 +5640,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>89</v>
@@ -5819,20 +5652,18 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>170</v>
+        <v>233</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>298</v>
+        <v>234</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5881,7 +5712,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>301</v>
+        <v>236</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -5890,16 +5721,16 @@
         <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>132</v>
+        <v>237</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -5913,21 +5744,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
@@ -5936,19 +5767,19 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>304</v>
+        <v>239</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>305</v>
+        <v>240</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>306</v>
+        <v>158</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5974,13 +5805,13 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -5998,25 +5829,25 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>309</v>
+        <v>242</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>132</v>
+        <v>237</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -6030,44 +5861,46 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>80</v>
+        <v>301</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6115,25 +5948,25 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>315</v>
+        <v>132</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -6147,10 +5980,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6170,20 +6003,18 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6208,13 +6039,13 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>80</v>
@@ -6232,7 +6063,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6247,10 +6078,10 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>132</v>
+        <v>311</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6264,10 +6095,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6275,7 +6106,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>89</v>
@@ -6287,16 +6118,16 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6347,10 +6178,10 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>89</v>
@@ -6362,16 +6193,16 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>328</v>
+        <v>80</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -6379,10 +6210,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6393,7 +6224,7 @@
         <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6405,13 +6236,13 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>330</v>
+        <v>233</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>331</v>
+        <v>234</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>332</v>
+        <v>235</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6462,28 +6293,28 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>329</v>
+        <v>236</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>333</v>
+        <v>237</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
@@ -6494,21 +6325,21 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6517,18 +6348,20 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>335</v>
+        <v>134</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>336</v>
+        <v>239</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6565,43 +6398,43 @@
         <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>334</v>
+        <v>242</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>339</v>
+        <v>237</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>341</v>
+        <v>80</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -6609,10 +6442,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6635,15 +6468,17 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>343</v>
+        <v>233</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>344</v>
+        <v>244</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6692,31 +6527,31 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>342</v>
+        <v>247</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>346</v>
+        <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>347</v>
+        <v>132</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>349</v>
+        <v>80</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -6724,10 +6559,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6747,18 +6582,20 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>171</v>
+        <v>250</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -6783,13 +6620,13 @@
         <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
@@ -6807,7 +6644,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>173</v>
+        <v>256</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -6819,13 +6656,13 @@
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6839,21 +6676,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -6862,19 +6699,19 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>134</v>
+        <v>258</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>176</v>
+        <v>259</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>177</v>
+        <v>260</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>158</v>
+        <v>261</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6924,25 +6761,25 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>179</v>
+        <v>262</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>174</v>
+        <v>263</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
@@ -6956,46 +6793,44 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>134</v>
+        <v>233</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>354</v>
+        <v>265</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>355</v>
+        <v>266</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
@@ -7043,19 +6878,19 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>356</v>
+        <v>268</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
@@ -7075,10 +6910,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7089,7 +6924,7 @@
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
@@ -7101,13 +6936,13 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7134,13 +6969,13 @@
         <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>259</v>
+        <v>196</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>80</v>
@@ -7158,13 +6993,13 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
@@ -7173,16 +7008,16 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>80</v>
+        <v>331</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
@@ -7190,10 +7025,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7201,10 +7036,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
@@ -7213,18 +7048,20 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7273,13 +7110,13 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
@@ -7288,27 +7125,27 @@
         <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>80</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7331,15 +7168,17 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>170</v>
+        <v>342</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>171</v>
+        <v>343</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7388,7 +7227,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>173</v>
+        <v>341</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7400,19 +7239,19 @@
         <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>80</v>
+        <v>346</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>174</v>
+        <v>347</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7420,14 +7259,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7446,17 +7285,15 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>134</v>
+        <v>350</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>176</v>
+        <v>351</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7493,19 +7330,19 @@
         <v>80</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>179</v>
+        <v>349</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7517,19 +7354,19 @@
         <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>174</v>
+        <v>353</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -7537,10 +7374,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7548,10 +7385,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -7560,20 +7397,18 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>170</v>
+        <v>356</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>298</v>
+        <v>357</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7622,25 +7457,25 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>301</v>
+        <v>355</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>80</v>
+        <v>359</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>132</v>
+        <v>360</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
@@ -7654,10 +7489,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7665,7 +7500,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>89</v>
@@ -7677,20 +7512,18 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>103</v>
+        <v>291</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>304</v>
+        <v>362</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -7715,13 +7548,13 @@
         <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
@@ -7739,7 +7572,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>309</v>
+        <v>361</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7751,13 +7584,13 @@
         <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>101</v>
+        <v>364</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>132</v>
+        <v>365</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
@@ -7771,10 +7604,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7794,20 +7627,18 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>162</v>
+        <v>233</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>311</v>
+        <v>234</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -7856,7 +7687,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>314</v>
+        <v>236</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -7868,13 +7699,13 @@
         <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>315</v>
+        <v>237</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
@@ -7888,21 +7719,21 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -7911,19 +7742,19 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>317</v>
+        <v>239</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>318</v>
+        <v>240</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>319</v>
+        <v>158</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7973,25 +7804,25 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>320</v>
+        <v>242</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>132</v>
+        <v>237</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
@@ -8005,14 +7836,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>80</v>
+        <v>301</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8025,22 +7856,26 @@
         <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>377</v>
+        <v>302</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8064,13 +7899,13 @@
         <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>379</v>
+        <v>80</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
@@ -8088,7 +7923,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>376</v>
+        <v>304</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8100,19 +7935,19 @@
         <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>381</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>382</v>
+        <v>132</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>383</v>
+        <v>80</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>80</v>
@@ -8120,10 +7955,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8134,7 +7969,7 @@
         <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -8146,17 +7981,15 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>385</v>
+        <v>233</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8205,13 +8038,13 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>80</v>
@@ -8220,27 +8053,27 @@
         <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>389</v>
+        <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>391</v>
+        <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8263,16 +8096,16 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>394</v>
+        <v>193</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8298,13 +8131,13 @@
         <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>80</v>
+        <v>377</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
@@ -8322,7 +8155,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8337,16 +8170,16 @@
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>398</v>
+        <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>80</v>
@@ -8354,10 +8187,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8368,7 +8201,7 @@
         <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8380,13 +8213,13 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>402</v>
+        <v>193</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8413,13 +8246,11 @@
         <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>80</v>
+        <v>384</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
@@ -8437,13 +8268,13 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
@@ -8455,13 +8286,13 @@
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>80</v>
@@ -8469,10 +8300,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8483,7 +8314,7 @@
         <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
@@ -8495,13 +8326,13 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>408</v>
+        <v>233</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>409</v>
+        <v>234</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>410</v>
+        <v>235</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8552,25 +8383,25 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>407</v>
+        <v>236</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>411</v>
+        <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>412</v>
+        <v>237</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
@@ -8584,21 +8415,21 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8610,15 +8441,17 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>343</v>
+        <v>134</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>414</v>
+        <v>239</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8655,37 +8488,37 @@
         <v>80</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>413</v>
+        <v>242</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>416</v>
+        <v>140</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>417</v>
+        <v>237</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
@@ -8697,12 +8530,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8710,31 +8543,35 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>170</v>
+        <v>390</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>171</v>
+        <v>391</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
       </c>
@@ -8782,31 +8619,31 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>173</v>
+        <v>395</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>174</v>
+        <v>396</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>80</v>
@@ -8814,21 +8651,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -8840,17 +8677,15 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>134</v>
+        <v>233</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>176</v>
+        <v>234</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -8899,25 +8734,25 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>174</v>
+        <v>237</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -8931,14 +8766,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>353</v>
+        <v>155</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8951,26 +8786,24 @@
         <v>80</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>134</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>354</v>
+        <v>239</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>355</v>
+        <v>240</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="O60" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
@@ -9006,19 +8839,19 @@
         <v>80</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>356</v>
+        <v>242</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9036,7 +8869,7 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>132</v>
+        <v>237</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
@@ -9050,10 +8883,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9061,7 +8894,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>89</v>
@@ -9073,19 +8906,23 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9133,7 +8970,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9151,13 +8988,13 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>80</v>
+        <v>407</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>80</v>
@@ -9165,10 +9002,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9188,19 +9025,19 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9226,13 +9063,13 @@
         <v>80</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>429</v>
+        <v>80</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>430</v>
+        <v>80</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>80</v>
@@ -9250,7 +9087,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9268,13 +9105,13 @@
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>80</v>
@@ -9282,10 +9119,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9293,7 +9130,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>89</v>
@@ -9305,19 +9142,21 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>191</v>
+        <v>109</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9341,11 +9180,13 @@
         <v>80</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="Y63" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z63" t="s" s="2">
-        <v>436</v>
+        <v>80</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>80</v>
@@ -9363,7 +9204,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9381,13 +9222,13 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -9395,10 +9236,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9418,19 +9259,21 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>170</v>
+        <v>233</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>171</v>
+        <v>423</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>172</v>
+        <v>424</v>
       </c>
       <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9478,7 +9321,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>173</v>
+        <v>426</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -9490,19 +9333,19 @@
         <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>174</v>
+        <v>427</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>80</v>
+        <v>428</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -9510,21 +9353,21 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>80</v>
@@ -9533,21 +9376,23 @@
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>134</v>
+        <v>430</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>176</v>
+        <v>431</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>177</v>
+        <v>432</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9583,43 +9428,43 @@
         <v>80</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>179</v>
+        <v>435</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>174</v>
+        <v>436</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>80</v>
+        <v>437</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>80</v>
@@ -9627,10 +9472,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9638,13 +9483,13 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>80</v>
@@ -9653,19 +9498,19 @@
         <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="O66" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -9714,13 +9559,13 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>80</v>
@@ -9732,13 +9577,13 @@
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>80</v>
@@ -9746,10 +9591,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9772,15 +9617,17 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>171</v>
+        <v>447</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -9805,13 +9652,11 @@
         <v>80</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>80</v>
@@ -9829,7 +9674,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>173</v>
+        <v>446</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -9841,19 +9686,19 @@
         <v>80</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>174</v>
+        <v>451</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>80</v>
+        <v>452</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>80</v>
@@ -9861,21 +9706,21 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>80</v>
@@ -9887,17 +9732,15 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>134</v>
+        <v>233</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>176</v>
+        <v>234</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>80</v>
@@ -9934,37 +9777,37 @@
         <v>80</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>174</v>
+        <v>237</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
@@ -9978,21 +9821,21 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>80</v>
@@ -10001,23 +9844,21 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>453</v>
+        <v>239</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>454</v>
+        <v>240</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>80</v>
       </c>
@@ -10053,43 +9894,43 @@
         <v>80</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>457</v>
+        <v>242</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>458</v>
+        <v>237</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>459</v>
+        <v>80</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>80</v>
@@ -10097,10 +9938,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10108,10 +9949,10 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>80</v>
@@ -10123,18 +9964,20 @@
         <v>90</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>170</v>
+        <v>390</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>461</v>
+        <v>391</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>462</v>
+        <v>392</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="O70" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10182,13 +10025,13 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>464</v>
+        <v>395</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>80</v>
@@ -10200,13 +10043,13 @@
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>465</v>
+        <v>396</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>466</v>
+        <v>397</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
@@ -10214,10 +10057,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10225,7 +10068,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>89</v>
@@ -10237,21 +10080,19 @@
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>109</v>
+        <v>233</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>468</v>
+        <v>234</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>469</v>
+        <v>235</v>
       </c>
       <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>470</v>
-      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10299,7 +10140,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>471</v>
+        <v>236</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -10311,19 +10152,19 @@
         <v>80</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>472</v>
+        <v>237</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>473</v>
+        <v>80</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -10331,21 +10172,21 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
@@ -10354,21 +10195,21 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>475</v>
+        <v>239</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>80</v>
       </c>
@@ -10404,43 +10245,43 @@
         <v>80</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>478</v>
+        <v>242</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>479</v>
+        <v>237</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
@@ -10448,10 +10289,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10459,7 +10300,7 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>89</v>
@@ -10474,19 +10315,19 @@
         <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>482</v>
+        <v>103</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>483</v>
+        <v>401</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>485</v>
+        <v>403</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>486</v>
+        <v>404</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -10535,7 +10376,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>487</v>
+        <v>405</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -10553,13 +10394,13 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>488</v>
+        <v>406</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>489</v>
+        <v>407</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>80</v>
@@ -10567,10 +10408,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>490</v>
+        <v>459</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>490</v>
+        <v>459</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10593,20 +10434,18 @@
         <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>170</v>
+        <v>233</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>491</v>
+        <v>409</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>492</v>
+        <v>410</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>494</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>80</v>
       </c>
@@ -10654,7 +10493,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>495</v>
+        <v>412</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -10672,13 +10511,13 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>496</v>
+        <v>413</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>497</v>
+        <v>414</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>80</v>
@@ -10686,10 +10525,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>498</v>
+        <v>460</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>498</v>
+        <v>460</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10697,7 +10536,7 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>89</v>
@@ -10709,21 +10548,21 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>191</v>
+        <v>109</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>499</v>
+        <v>416</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="O75" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>80</v>
       </c>
@@ -10747,11 +10586,13 @@
         <v>80</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="Y75" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z75" t="s" s="2">
-        <v>502</v>
+        <v>80</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>80</v>
@@ -10769,7 +10610,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>498</v>
+        <v>419</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -10787,13 +10628,13 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>503</v>
+        <v>420</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>504</v>
+        <v>421</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>80</v>
@@ -10801,10 +10642,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>505</v>
+        <v>461</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>505</v>
+        <v>461</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10824,19 +10665,21 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>170</v>
+        <v>233</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>171</v>
+        <v>423</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>172</v>
+        <v>424</v>
       </c>
       <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>80</v>
       </c>
@@ -10884,7 +10727,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>173</v>
+        <v>426</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
@@ -10896,19 +10739,19 @@
         <v>80</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>174</v>
+        <v>427</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>80</v>
+        <v>428</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>80</v>
@@ -10916,21 +10759,21 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>506</v>
+        <v>462</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>506</v>
+        <v>462</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>80</v>
@@ -10939,21 +10782,23 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>134</v>
+        <v>430</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>176</v>
+        <v>431</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>177</v>
+        <v>432</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O77" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>80</v>
       </c>
@@ -10989,43 +10834,43 @@
         <v>80</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>179</v>
+        <v>435</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>174</v>
+        <v>436</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>80</v>
+        <v>437</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>80</v>
@@ -11033,10 +10878,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>507</v>
+        <v>463</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>507</v>
+        <v>463</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11044,10 +10889,10 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>80</v>
@@ -11059,19 +10904,19 @@
         <v>90</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="O78" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>80</v>
@@ -11120,13 +10965,13 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>80</v>
@@ -11138,24 +10983,24 @@
         <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
-        <v>508</v>
+        <v>464</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>508</v>
+        <v>464</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11169,7 +11014,7 @@
         <v>89</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>80</v>
@@ -11178,15 +11023,17 @@
         <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>170</v>
+        <v>465</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>171</v>
+        <v>466</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>80</v>
@@ -11235,7 +11082,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>173</v>
+        <v>464</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
@@ -11247,19 +11094,19 @@
         <v>80</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>174</v>
+        <v>469</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>80</v>
+        <v>470</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>80</v>
@@ -11267,21 +11114,21 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>509</v>
+        <v>471</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>509</v>
+        <v>471</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>80</v>
@@ -11293,16 +11140,16 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>134</v>
+        <v>472</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>176</v>
+        <v>473</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>177</v>
+        <v>474</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>158</v>
+        <v>475</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11340,43 +11187,43 @@
         <v>80</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="AD80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>179</v>
+        <v>471</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>174</v>
+        <v>476</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>80</v>
+        <v>477</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
@@ -11384,10 +11231,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>510</v>
+        <v>478</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>510</v>
+        <v>478</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11395,10 +11242,10 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>80</v>
@@ -11407,23 +11254,21 @@
         <v>80</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>103</v>
+        <v>479</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>453</v>
+        <v>480</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>454</v>
+        <v>481</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>80</v>
       </c>
@@ -11471,13 +11316,13 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>80</v>
@@ -11489,970 +11334,30 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>458</v>
+        <v>483</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>459</v>
+        <v>80</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="P83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="P84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="P85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="P86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="O87" s="2"/>
-      <c r="P87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="O88" s="2"/>
-      <c r="P88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="O89" s="2"/>
-      <c r="P89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO89" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO89">
-    <filterColumn colId="6">
+  <autoFilter ref="A1:AO81">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI88">
+  <conditionalFormatting sqref="A2:AI80">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
